--- a/Trails/RNN/Classification/Observations from Trails.xlsx
+++ b/Trails/RNN/Classification/Observations from Trails.xlsx
@@ -15,31 +15,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Author</author>
-  </authors>
-  <commentList>
-    <comment ref="F13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Training error at last epoch.</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
   <si>
     <t>Trail Number</t>
   </si>
@@ -132,13 +109,61 @@
   </si>
   <si>
     <t>Trail 7</t>
+  </si>
+  <si>
+    <t>7 hrs</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>classification</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Samples are not accurate at the time</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Given the good results for the better data</t>
+  </si>
+  <si>
+    <t>Given the good results for the better data</t>
+  </si>
+  <si>
+    <t>Better</t>
+  </si>
+  <si>
+    <t>Fully RNN is not giving the results</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time lag RNN is some what better results </t>
+  </si>
+  <si>
+    <t>Giving the better results for higher Epochs</t>
+  </si>
+  <si>
+    <t>Time lag RNN is giving the good results for the 1 hidden layer not giving the results for higher Hidden Layers</t>
+  </si>
+  <si>
+    <t>Higher hidden layers giving the better results</t>
+  </si>
+  <si>
+    <t>1.5 hrs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -152,12 +177,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -186,9 +205,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
@@ -484,10 +509,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -499,9 +524,11 @@
     <col min="5" max="6" width="15.6640625" customWidth="1"/>
     <col min="7" max="7" width="10.44140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="35.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -526,13 +553,19 @@
       <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>1</v>
@@ -549,31 +582,20 @@
       <c r="G2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
+      <c r="H2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
         <v>17</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1000</v>
-      </c>
-      <c r="F3">
-        <v>5.6777466719614214E-3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
       <c r="B4" t="s">
         <v>11</v>
       </c>
@@ -581,110 +603,91 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1000</v>
+      </c>
+      <c r="F4">
+        <v>5.6777466719614214E-3</v>
+      </c>
+      <c r="G4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
         <v>3</v>
       </c>
-      <c r="E4">
-        <v>1000</v>
-      </c>
-      <c r="F4">
+      <c r="E5">
+        <v>1000</v>
+      </c>
+      <c r="F5">
         <v>4.6629803962545948E-3</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
+      <c r="H5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>18</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C7">
         <v>5</v>
       </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1000</v>
-      </c>
-      <c r="F5">
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1000</v>
+      </c>
+      <c r="F7">
         <v>0.13343190838811261</v>
       </c>
-      <c r="G5" t="s">
+      <c r="G7" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>3</v>
-      </c>
-      <c r="E6">
-        <v>1000</v>
-      </c>
-      <c r="F6">
-        <v>5.0809250903583875E-3</v>
-      </c>
-      <c r="G6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>4.2296849172488604E-2</v>
-      </c>
-      <c r="G7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>500</v>
-      </c>
-      <c r="F8">
-        <v>8.8578668712490684E-3</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>11</v>
@@ -693,147 +696,332 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E9">
         <v>1000</v>
       </c>
       <c r="F9">
-        <v>7.2420083627922106E-3</v>
+        <v>5.0809250903583875E-3</v>
       </c>
       <c r="G9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>3</v>
-      </c>
-      <c r="E10">
-        <v>1000</v>
-      </c>
-      <c r="F10">
-        <v>5.5747366471965969E-3</v>
-      </c>
-      <c r="G10" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>13</v>
+      </c>
+      <c r="H9" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" t="s">
+        <v>34</v>
+      </c>
+      <c r="J9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
       <c r="B11" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11">
-        <v>1000</v>
+        <v>50</v>
       </c>
       <c r="F11">
-        <v>5.5153574267349417E-2</v>
+        <v>4.2296849172488604E-2</v>
       </c>
       <c r="G11" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I11" t="s">
+        <v>34</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
       <c r="B12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="F12">
-        <v>5.517165560002113E-2</v>
+        <v>8.8578668712490684E-3</v>
       </c>
       <c r="G12" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="B13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1000</v>
-      </c>
-      <c r="F13">
-        <v>0.12775668522281947</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
-      <c r="H13" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>35</v>
+      </c>
+      <c r="I12" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="2"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
       <c r="B14" t="s">
         <v>11</v>
       </c>
       <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1000</v>
+      </c>
+      <c r="F14">
+        <v>7.2420083627922106E-3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" t="s">
+        <v>35</v>
+      </c>
+      <c r="I14" t="s">
+        <v>34</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="B15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D14">
+      <c r="E15">
+        <v>1000</v>
+      </c>
+      <c r="F15">
+        <v>5.5747366471965969E-3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>22</v>
+      </c>
+      <c r="H15" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1000</v>
+      </c>
+      <c r="F16">
+        <v>5.5153574267349417E-2</v>
+      </c>
+      <c r="G16" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" t="s">
+        <v>34</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
         <v>3</v>
       </c>
-      <c r="E14">
-        <v>1000</v>
-      </c>
-      <c r="F14">
+      <c r="E17">
+        <v>1000</v>
+      </c>
+      <c r="F17">
+        <v>5.517165560002113E-2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>25</v>
+      </c>
+      <c r="H17" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="B18" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>1000</v>
+      </c>
+      <c r="F18">
+        <v>0.12775668522281947</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="B19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>3</v>
+      </c>
+      <c r="E19">
+        <v>1000</v>
+      </c>
+      <c r="F19">
         <v>0.122</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G19" t="s">
         <v>12</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H19" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
+      <c r="I19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" t="s">
         <v>30</v>
       </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21">
+        <v>1000</v>
+      </c>
+      <c r="F21">
+        <v>1.3377707494032088E-3</v>
+      </c>
+      <c r="G21" t="s">
+        <v>31</v>
+      </c>
+      <c r="H21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I21" t="s">
+        <v>34</v>
+      </c>
+      <c r="J21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="B22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22">
+        <v>5</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1000</v>
+      </c>
+      <c r="F22">
+        <v>1.6706525160444187E-3</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23">
+        <v>1000</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="J11:J12"/>
+    <mergeCell ref="J14:J19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Trails/RNN/Classification/Observations from Trails.xlsx
+++ b/Trails/RNN/Classification/Observations from Trails.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="49">
   <si>
     <t>Trail Number</t>
   </si>
@@ -157,6 +157,12 @@
   </si>
   <si>
     <t>1.5 hrs</t>
+  </si>
+  <si>
+    <t>Learns very quickly and giving results accurately</t>
+  </si>
+  <si>
+    <t>taking the too much time for training and error is reducing but giving the results</t>
   </si>
 </sst>
 </file>
@@ -512,7 +518,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1000,6 +1006,9 @@
       <c r="I22" t="s">
         <v>34</v>
       </c>
+      <c r="J22" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="B23" t="s">
@@ -1012,7 +1021,22 @@
         <v>1</v>
       </c>
       <c r="E23">
-        <v>1000</v>
+        <v>376</v>
+      </c>
+      <c r="F23">
+        <v>4.734072854557806E-2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>35</v>
+      </c>
+      <c r="I23" t="s">
+        <v>34</v>
+      </c>
+      <c r="J23" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>

--- a/Trails/RNN/Classification/Observations from Trails.xlsx
+++ b/Trails/RNN/Classification/Observations from Trails.xlsx
@@ -162,7 +162,7 @@
     <t>Learns very quickly and giving results accurately</t>
   </si>
   <si>
-    <t>taking the too much time for training and error is reducing but giving the results</t>
+    <t>taking the too much time for training and error is not reducing but giving the results</t>
   </si>
 </sst>
 </file>
@@ -518,7 +518,7 @@
   <dimension ref="A1:J23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
